--- a/scripts/newBill.xlsx
+++ b/scripts/newBill.xlsx
@@ -833,7 +833,7 @@
       <c r="I7" s="60" t="n"/>
       <c r="J7" s="8" t="inlineStr">
         <is>
-          <t>: 001</t>
+          <t>: 005</t>
         </is>
       </c>
       <c r="K7" s="33" t="n"/>
@@ -857,7 +857,7 @@
       </c>
       <c r="J8" s="8" t="inlineStr">
         <is>
-          <t>: John Doe</t>
+          <t>: Siddhant Yadav</t>
         </is>
       </c>
       <c r="K8" s="33" t="n"/>
@@ -873,7 +873,7 @@
       </c>
       <c r="J9" s="8" t="inlineStr">
         <is>
-          <t>: 1234 Elm Street</t>
+          <t>: Delhi</t>
         </is>
       </c>
       <c r="K9" s="33" t="n"/>
@@ -1149,7 +1149,7 @@
       </c>
       <c r="I29" s="54" t="inlineStr">
         <is>
-          <t>One Thousand, Two Hundred and Thirty-Four Rupees, Fifty-Six Paise</t>
+          <t>Four Hundred and Eighty-Seven Rupees, Zero Paise</t>
         </is>
       </c>
       <c r="J29" s="22" t="n"/>
